--- a/output/prenatal-excel.xlsx
+++ b/output/prenatal-excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16680" tabRatio="500"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
-  <si>
-    <t>Rural</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>prenatal_eligible</t>
   </si>
@@ -44,7 +38,13 @@
     <t>prenatal_rate</t>
   </si>
   <si>
-    <t>2010-2014</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>OB hospital(s)</t>
+  </si>
+  <si>
+    <t>No OB hospital(s)</t>
   </si>
 </sst>
 </file>
@@ -367,66 +367,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2014</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>38112.07</v>
+        <v>351868</v>
       </c>
       <c r="B4" s="1">
-        <v>22290</v>
+        <v>217086</v>
       </c>
       <c r="C4" s="1">
-        <v>58.49</v>
+        <v>61.695294826469016</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
         <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2014</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>339846.35999999993</v>
+        <v>25266</v>
       </c>
       <c r="B6">
-        <v>210571</v>
+        <v>15315</v>
       </c>
       <c r="C6">
-        <v>61.960645981319338</v>
+        <v>60.615055806221797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>377955</v>
+      </c>
+      <c r="B9">
+        <v>232861</v>
+      </c>
+      <c r="C9">
+        <v>61.61077376936408</v>
       </c>
     </row>
   </sheetData>
